--- a/results/mp/tinybert/corona/confidence/42/stop-words-0.2/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/42/stop-words-0.2/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="44">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,58 +43,58 @@
     <t>crude</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
     <t>crisis</t>
   </si>
   <si>
+    <t>sc</t>
+  </si>
+  <si>
     <t>panic</t>
   </si>
   <si>
     <t>low</t>
   </si>
   <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>best</t>
+    <t>great</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>special</t>
   </si>
   <si>
     <t>free</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>thanks</t>
+    <t>support</t>
   </si>
   <si>
     <t>safety</t>
   </si>
   <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>thank</t>
+    <t>good</t>
   </si>
   <si>
     <t>safe</t>
@@ -106,34 +106,34 @@
     <t>better</t>
   </si>
   <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
     <t>fresh</t>
   </si>
   <si>
+    <t>relief</t>
+  </si>
+  <si>
     <t>well</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
     <t>hand</t>
   </si>
   <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
     <t>protect</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>care</t>
+    <t>increase</t>
   </si>
   <si>
     <t>please</t>
@@ -143,6 +143,9 @@
   </si>
   <si>
     <t>19</t>
+  </si>
+  <si>
+    <t>co</t>
   </si>
 </sst>
 </file>
@@ -500,7 +503,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q29"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -508,7 +511,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J1" t="s">
         <v>20</v>
@@ -569,13 +572,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.96</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="C3">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D3">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -587,19 +590,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K3">
-        <v>0.9583333333333334</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="L3">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M3">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -619,37 +622,37 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8823529411764706</v>
+        <v>0.613013698630137</v>
       </c>
       <c r="C4">
+        <v>179</v>
+      </c>
+      <c r="D4">
+        <v>179</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>113</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D4">
-        <v>15</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>2</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="K4">
-        <v>0.9444444444444444</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L4">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="M4">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -661,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -669,13 +672,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7337662337662337</v>
+        <v>0.2063492063492063</v>
       </c>
       <c r="C5">
-        <v>113</v>
+        <v>39</v>
       </c>
       <c r="D5">
-        <v>113</v>
+        <v>39</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -687,19 +690,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>41</v>
+        <v>150</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K5">
-        <v>0.9375</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="L5">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="M5">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -711,7 +714,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -719,13 +722,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.3562231759656652</v>
+        <v>0.1841085271317829</v>
       </c>
       <c r="C6">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="D6">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -737,19 +740,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>150</v>
+        <v>421</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K6">
-        <v>0.8928571428571429</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L6">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="M6">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -761,7 +764,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -769,137 +772,89 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.25</v>
+        <v>0.1677852348993289</v>
       </c>
       <c r="C7">
+        <v>25</v>
+      </c>
+      <c r="D7">
+        <v>25</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>124</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7">
+        <v>0.8482142857142857</v>
+      </c>
+      <c r="L7">
+        <v>95</v>
+      </c>
+      <c r="M7">
+        <v>95</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="J8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8">
+        <v>0.8170731707317073</v>
+      </c>
+      <c r="L8">
+        <v>67</v>
+      </c>
+      <c r="M8">
+        <v>67</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="J9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D7">
-        <v>20</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>60</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K7">
-        <v>0.8888888888888888</v>
-      </c>
-      <c r="L7">
-        <v>24</v>
-      </c>
-      <c r="M7">
-        <v>24</v>
-      </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8">
-        <v>0.2209302325581395</v>
-      </c>
-      <c r="C8">
-        <v>19</v>
-      </c>
-      <c r="D8">
-        <v>19</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>67</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K8">
-        <v>0.8823529411764706</v>
-      </c>
-      <c r="L8">
-        <v>45</v>
-      </c>
-      <c r="M8">
-        <v>45</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="A9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9">
-        <v>0.1272727272727273</v>
-      </c>
-      <c r="C9">
-        <v>14</v>
-      </c>
-      <c r="D9">
-        <v>14</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>96</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="K9">
-        <v>0.875</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L9">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="M9">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -911,21 +866,21 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="J10" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K10">
-        <v>0.85</v>
+        <v>0.8046875</v>
       </c>
       <c r="L10">
-        <v>34</v>
+        <v>103</v>
       </c>
       <c r="M10">
-        <v>34</v>
+        <v>103</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -937,21 +892,21 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>6</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K11">
-        <v>0.8275862068965517</v>
+        <v>0.75</v>
       </c>
       <c r="L11">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M11">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -963,21 +918,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K12">
-        <v>0.8235294117647058</v>
+        <v>0.75</v>
       </c>
       <c r="L12">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="M12">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -989,21 +944,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>9</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K13">
-        <v>0.8148148148148148</v>
+        <v>0.7264150943396226</v>
       </c>
       <c r="L13">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="M13">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1015,21 +970,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>10</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K14">
-        <v>0.7241379310344828</v>
+        <v>0.7254901960784313</v>
       </c>
       <c r="L14">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="M14">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1041,21 +996,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K15">
-        <v>0.7083333333333334</v>
+        <v>0.69375</v>
       </c>
       <c r="L15">
-        <v>17</v>
+        <v>111</v>
       </c>
       <c r="M15">
-        <v>17</v>
+        <v>111</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1067,21 +1022,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>7</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K16">
-        <v>0.696969696969697</v>
+        <v>0.6901408450704225</v>
       </c>
       <c r="L16">
-        <v>23</v>
+        <v>98</v>
       </c>
       <c r="M16">
-        <v>23</v>
+        <v>98</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1093,21 +1048,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>10</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K17">
-        <v>0.68</v>
+        <v>0.6808510638297872</v>
       </c>
       <c r="L17">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="M17">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1119,21 +1074,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K18">
-        <v>0.6575342465753424</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L18">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="M18">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1145,21 +1100,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K19">
-        <v>0.6538461538461539</v>
+        <v>0.625</v>
       </c>
       <c r="L19">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="M19">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1171,21 +1126,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K20">
-        <v>0.6410256410256411</v>
+        <v>0.62</v>
       </c>
       <c r="L20">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M20">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1197,21 +1152,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K21">
-        <v>0.6</v>
+        <v>0.5638297872340425</v>
       </c>
       <c r="L21">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="M21">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1223,21 +1178,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>10</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K22">
-        <v>0.568075117370892</v>
+        <v>0.5248041775456919</v>
       </c>
       <c r="L22">
-        <v>121</v>
+        <v>201</v>
       </c>
       <c r="M22">
-        <v>121</v>
+        <v>201</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1249,21 +1204,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>92</v>
+        <v>182</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K23">
-        <v>0.5666666666666667</v>
+        <v>0.4676470588235294</v>
       </c>
       <c r="L23">
-        <v>17</v>
+        <v>159</v>
       </c>
       <c r="M23">
-        <v>17</v>
+        <v>159</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1275,21 +1230,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>13</v>
+        <v>181</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K24">
-        <v>0.5277777777777778</v>
+        <v>0.449438202247191</v>
       </c>
       <c r="L24">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="M24">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1301,21 +1256,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>68</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K25">
-        <v>0.4961240310077519</v>
+        <v>0.4305084745762712</v>
       </c>
       <c r="L25">
-        <v>64</v>
+        <v>127</v>
       </c>
       <c r="M25">
-        <v>64</v>
+        <v>127</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1327,47 +1282,47 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>65</v>
+        <v>168</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K26">
+        <v>0.4</v>
+      </c>
+      <c r="L26">
+        <v>26</v>
+      </c>
+      <c r="M26">
+        <v>26</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
         <v>39</v>
-      </c>
-      <c r="K26">
-        <v>0.4285714285714285</v>
-      </c>
-      <c r="L26">
-        <v>15</v>
-      </c>
-      <c r="M26">
-        <v>15</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>20</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K27">
-        <v>0.4130434782608696</v>
+        <v>0.3972602739726027</v>
       </c>
       <c r="L27">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="M27">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1379,21 +1334,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>54</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K28">
-        <v>0.03414634146341464</v>
+        <v>0.3717948717948718</v>
       </c>
       <c r="L28">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="M28">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1405,33 +1360,111 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>396</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K29">
+        <v>0.3682008368200837</v>
+      </c>
+      <c r="L29">
+        <v>88</v>
+      </c>
+      <c r="M29">
+        <v>88</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="30" spans="10:17">
+      <c r="J30" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K30">
+        <v>0.03131991051454139</v>
+      </c>
+      <c r="L30">
+        <v>28</v>
+      </c>
+      <c r="M30">
+        <v>28</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="31" spans="10:17">
+      <c r="J31" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="K29">
-        <v>0.01248884924174844</v>
-      </c>
-      <c r="L29">
-        <v>14</v>
-      </c>
-      <c r="M29">
-        <v>16</v>
-      </c>
-      <c r="N29">
-        <v>0.88</v>
-      </c>
-      <c r="O29">
-        <v>0.12</v>
-      </c>
-      <c r="P29" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q29">
-        <v>1107</v>
+      <c r="K31">
+        <v>0.01493930905695612</v>
+      </c>
+      <c r="L31">
+        <v>32</v>
+      </c>
+      <c r="M31">
+        <v>33</v>
+      </c>
+      <c r="N31">
+        <v>0.97</v>
+      </c>
+      <c r="O31">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="P31" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q31">
+        <v>2110</v>
+      </c>
+    </row>
+    <row r="32" spans="10:17">
+      <c r="J32" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K32">
+        <v>0.008381689232753063</v>
+      </c>
+      <c r="L32">
+        <v>26</v>
+      </c>
+      <c r="M32">
+        <v>31</v>
+      </c>
+      <c r="N32">
+        <v>0.84</v>
+      </c>
+      <c r="O32">
+        <v>0.16</v>
+      </c>
+      <c r="P32" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q32">
+        <v>3076</v>
       </c>
     </row>
   </sheetData>

--- a/results/mp/tinybert/corona/confidence/42/stop-words-0.2/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/42/stop-words-0.2/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
   <si>
     <t>anchor score</t>
   </si>
@@ -52,9 +52,6 @@
     <t>panic</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
@@ -64,79 +61,76 @@
     <t>best</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
     <t>positive</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
     <t>support</t>
   </si>
   <si>
+    <t>good</t>
+  </si>
+  <si>
     <t>safety</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>safe</t>
+    <t>well</t>
+  </si>
+  <si>
+    <t>better</t>
   </si>
   <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
     <t>fresh</t>
   </si>
   <si>
     <t>relief</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
     <t>hand</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
+    <t>help</t>
+  </si>
+  <si>
     <t>care</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
     <t>protect</t>
   </si>
   <si>
+    <t>please</t>
+  </si>
+  <si>
     <t>increase</t>
-  </si>
-  <si>
-    <t>please</t>
   </si>
   <si>
     <t>store</t>
@@ -503,7 +497,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q32"/>
+  <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -511,10 +505,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -593,7 +587,7 @@
         <v>6</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K3">
         <v>0.9615384615384616</v>
@@ -622,13 +616,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.613013698630137</v>
+        <v>0.6232876712328768</v>
       </c>
       <c r="C4">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D4">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -640,19 +634,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K4">
-        <v>0.9322033898305084</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L4">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M4">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -664,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -672,13 +666,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.2063492063492063</v>
+        <v>0.2116402116402116</v>
       </c>
       <c r="C5">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D5">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -690,19 +684,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K5">
-        <v>0.9130434782608695</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L5">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="M5">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -714,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -722,13 +716,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.1841085271317829</v>
+        <v>0.2054263565891473</v>
       </c>
       <c r="C6">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="D6">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -740,69 +734,45 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>421</v>
+        <v>410</v>
       </c>
       <c r="J6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6">
+        <v>0.9130434782608695</v>
+      </c>
+      <c r="L6">
+        <v>42</v>
+      </c>
+      <c r="M6">
+        <v>42</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="J7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K6">
-        <v>0.9090909090909091</v>
-      </c>
-      <c r="L6">
-        <v>30</v>
-      </c>
-      <c r="M6">
-        <v>30</v>
-      </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
-      <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7">
-        <v>0.1677852348993289</v>
-      </c>
-      <c r="C7">
-        <v>25</v>
-      </c>
-      <c r="D7">
-        <v>25</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>124</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="K7">
-        <v>0.8482142857142857</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L7">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M7">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -814,12 +784,12 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="J8" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K8">
         <v>0.8170731707317073</v>
@@ -845,16 +815,16 @@
     </row>
     <row r="9" spans="1:17">
       <c r="J9" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K9">
-        <v>0.8103448275862069</v>
+        <v>0.796875</v>
       </c>
       <c r="L9">
-        <v>47</v>
+        <v>102</v>
       </c>
       <c r="M9">
-        <v>47</v>
+        <v>102</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -866,21 +836,21 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>11</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="J10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K10">
-        <v>0.8046875</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L10">
-        <v>103</v>
+        <v>28</v>
       </c>
       <c r="M10">
-        <v>103</v>
+        <v>28</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -892,21 +862,21 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>25</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K11">
-        <v>0.75</v>
+        <v>0.7676056338028169</v>
       </c>
       <c r="L11">
-        <v>27</v>
+        <v>109</v>
       </c>
       <c r="M11">
-        <v>27</v>
+        <v>109</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -918,12 +888,12 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>9</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K12">
         <v>0.75</v>
@@ -949,16 +919,16 @@
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K13">
-        <v>0.7264150943396226</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="L13">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="M13">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -970,21 +940,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K14">
-        <v>0.7254901960784313</v>
+        <v>0.6981132075471698</v>
       </c>
       <c r="L14">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="M14">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -996,21 +966,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>14</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K15">
-        <v>0.69375</v>
+        <v>0.6875</v>
       </c>
       <c r="L15">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M15">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1022,21 +992,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K16">
-        <v>0.6901408450704225</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="L16">
-        <v>98</v>
+        <v>33</v>
       </c>
       <c r="M16">
-        <v>98</v>
+        <v>33</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1048,21 +1018,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>44</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K17">
-        <v>0.6808510638297872</v>
+        <v>0.6382978723404256</v>
       </c>
       <c r="L17">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="M17">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1074,21 +1044,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>15</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K18">
-        <v>0.6666666666666666</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="L18">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="M18">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1100,21 +1070,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K19">
-        <v>0.625</v>
+        <v>0.6170212765957447</v>
       </c>
       <c r="L19">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M19">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1131,16 +1101,16 @@
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K20">
-        <v>0.62</v>
+        <v>0.5625</v>
       </c>
       <c r="L20">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="M20">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1152,21 +1122,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K21">
-        <v>0.5638297872340425</v>
+        <v>0.54</v>
       </c>
       <c r="L21">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="M21">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1178,21 +1148,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>41</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K22">
-        <v>0.5248041775456919</v>
+        <v>0.5274151436031331</v>
       </c>
       <c r="L22">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M22">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1204,21 +1174,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K23">
-        <v>0.4676470588235294</v>
+        <v>0.4441176470588235</v>
       </c>
       <c r="L23">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="M23">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1230,21 +1200,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>181</v>
+        <v>189</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K24">
-        <v>0.449438202247191</v>
+        <v>0.4440677966101695</v>
       </c>
       <c r="L24">
-        <v>40</v>
+        <v>131</v>
       </c>
       <c r="M24">
-        <v>40</v>
+        <v>131</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1256,21 +1226,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>49</v>
+        <v>164</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K25">
-        <v>0.4305084745762712</v>
+        <v>0.4382022471910113</v>
       </c>
       <c r="L25">
-        <v>127</v>
+        <v>39</v>
       </c>
       <c r="M25">
-        <v>127</v>
+        <v>39</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1282,21 +1252,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>168</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K26">
-        <v>0.4</v>
+        <v>0.410958904109589</v>
       </c>
       <c r="L26">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M26">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1308,21 +1278,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K27">
-        <v>0.3972602739726027</v>
+        <v>0.3347280334728033</v>
       </c>
       <c r="L27">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="M27">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1334,21 +1304,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>44</v>
+        <v>159</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K28">
-        <v>0.3717948717948718</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L28">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M28">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1360,21 +1330,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K29">
-        <v>0.3682008368200837</v>
+        <v>0.03243847874720358</v>
       </c>
       <c r="L29">
-        <v>88</v>
+        <v>29</v>
       </c>
       <c r="M29">
-        <v>88</v>
+        <v>29</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1386,85 +1356,59 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>151</v>
+        <v>865</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K30">
-        <v>0.03131991051454139</v>
+        <v>0.01168224299065421</v>
       </c>
       <c r="L30">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M30">
         <v>28</v>
       </c>
       <c r="N30">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="O30">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="P30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q30">
-        <v>866</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K31">
-        <v>0.01493930905695612</v>
+        <v>0.01031592520954223</v>
       </c>
       <c r="L31">
         <v>32</v>
       </c>
       <c r="M31">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="N31">
-        <v>0.97</v>
+        <v>0.86</v>
       </c>
       <c r="O31">
-        <v>0.03000000000000003</v>
+        <v>0.14</v>
       </c>
       <c r="P31" t="b">
         <v>1</v>
       </c>
       <c r="Q31">
-        <v>2110</v>
-      </c>
-    </row>
-    <row r="32" spans="10:17">
-      <c r="J32" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K32">
-        <v>0.008381689232753063</v>
-      </c>
-      <c r="L32">
-        <v>26</v>
-      </c>
-      <c r="M32">
-        <v>31</v>
-      </c>
-      <c r="N32">
-        <v>0.84</v>
-      </c>
-      <c r="O32">
-        <v>0.16</v>
-      </c>
-      <c r="P32" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q32">
-        <v>3076</v>
+        <v>3070</v>
       </c>
     </row>
   </sheetData>
